--- a/final_measurements/unbiasing/for_age_and_gender/Position_to_applicant_women_in_top_X.xlsx
+++ b/final_measurements/unbiasing/for_age_and_gender/Position_to_applicant_women_in_top_X.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28914"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D11928-7860-4DB0-B053-0DA8878FC209}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269F1460-EF19-4D0A-B682-6655ED9BE669}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Statistic List Frequency</t>
+  </si>
+  <si>
+    <t>ignore gender</t>
+  </si>
+  <si>
+    <t>Use Both</t>
+  </si>
+  <si>
+    <t>Ignore age</t>
+  </si>
+  <si>
+    <t>ignore both</t>
   </si>
 </sst>
 </file>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,10 +538,11 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="43" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="44" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +564,9 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -574,8 +588,9 @@
       <c r="G2" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -597,8 +612,9 @@
       <c r="G3" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,8 +636,9 @@
       <c r="G4" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -643,31 +660,17 @@
       <c r="G5" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -675,22 +678,23 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -698,22 +702,23 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
         <v>12</v>
       </c>
-      <c r="F8" s="6">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="5">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5">
+        <v>50</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -721,20 +726,45 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
+      <c r="F9" s="6">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6">
+        <v>65</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>17</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>27</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>56</v>
       </c>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
